--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01183431952662722</v>
+        <v>0.6390532544378698</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.8875739644970414</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.2603550295857989</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.4935897435897436</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.5072681704260652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3109717868338558</v>
+        <v>0.4961221321373124</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4331360946745562</v>
+        <v>0.6561143984220907</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6390532544378698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8875739644970414</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2603550295857989</v>
+        <v>0.4772727272727272</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>0.588235294117647</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4935897435897436</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5072681704260652</v>
+        <v>0.4784090909090909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5384615384615385</v>
+        <v>0.5348484848484849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4961221321373124</v>
+        <v>0.4918489405331511</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6561143984220907</v>
+        <v>0.5477272727272726</v>
       </c>
     </row>
   </sheetData>
